--- a/casos_positivos.xlsx
+++ b/casos_positivos.xlsx
@@ -388,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C697"/>
+  <dimension ref="A1:C698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7571,7 +7571,7 @@
         <v>44549</v>
       </c>
       <c r="B653">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="C653" s="3">
         <v>44547</v>
@@ -7648,7 +7648,7 @@
         <v>44556</v>
       </c>
       <c r="B660">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C660" s="3">
         <v>44554</v>
@@ -7670,7 +7670,7 @@
         <v>44558</v>
       </c>
       <c r="B662">
-        <v>4262</v>
+        <v>4267</v>
       </c>
       <c r="C662" s="3">
         <v>44556</v>
@@ -7703,7 +7703,7 @@
         <v>44561</v>
       </c>
       <c r="B665">
-        <v>6306</v>
+        <v>6307</v>
       </c>
       <c r="C665" s="3">
         <v>44559</v>
@@ -7714,7 +7714,7 @@
         <v>44562</v>
       </c>
       <c r="B666">
-        <v>2185</v>
+        <v>2191</v>
       </c>
       <c r="C666" s="3">
         <v>44560</v>
@@ -7725,7 +7725,7 @@
         <v>44563</v>
       </c>
       <c r="B667">
-        <v>3129</v>
+        <v>3135</v>
       </c>
       <c r="C667" s="3">
         <v>44561</v>
@@ -7736,7 +7736,7 @@
         <v>44564</v>
       </c>
       <c r="B668">
-        <v>9396</v>
+        <v>9407</v>
       </c>
       <c r="C668" s="3">
         <v>44562</v>
@@ -7747,7 +7747,7 @@
         <v>44565</v>
       </c>
       <c r="B669">
-        <v>12405</v>
+        <v>12440</v>
       </c>
       <c r="C669" s="3">
         <v>44563</v>
@@ -7758,7 +7758,7 @@
         <v>44566</v>
       </c>
       <c r="B670">
-        <v>15111</v>
+        <v>15182</v>
       </c>
       <c r="C670" s="3">
         <v>44564</v>
@@ -7769,7 +7769,7 @@
         <v>44567</v>
       </c>
       <c r="B671">
-        <v>19314</v>
+        <v>19370</v>
       </c>
       <c r="C671" s="3">
         <v>44565</v>
@@ -7780,7 +7780,7 @@
         <v>44568</v>
       </c>
       <c r="B672">
-        <v>18671</v>
+        <v>18817</v>
       </c>
       <c r="C672" s="3">
         <v>44566</v>
@@ -7791,7 +7791,7 @@
         <v>44569</v>
       </c>
       <c r="B673">
-        <v>22651</v>
+        <v>22690</v>
       </c>
       <c r="C673" s="3">
         <v>44567</v>
@@ -7802,7 +7802,7 @@
         <v>44570</v>
       </c>
       <c r="B674">
-        <v>11020</v>
+        <v>11036</v>
       </c>
       <c r="C674" s="3">
         <v>44568</v>
@@ -7813,7 +7813,7 @@
         <v>44571</v>
       </c>
       <c r="B675">
-        <v>33376</v>
+        <v>33520</v>
       </c>
       <c r="C675" s="3">
         <v>44569</v>
@@ -7824,7 +7824,7 @@
         <v>44572</v>
       </c>
       <c r="B676">
-        <v>33598</v>
+        <v>33748</v>
       </c>
       <c r="C676" s="3">
         <v>44570</v>
@@ -7835,7 +7835,7 @@
         <v>44573</v>
       </c>
       <c r="B677">
-        <v>42240</v>
+        <v>42346</v>
       </c>
       <c r="C677" s="3">
         <v>44571</v>
@@ -7846,7 +7846,7 @@
         <v>44574</v>
       </c>
       <c r="B678">
-        <v>46758</v>
+        <v>46838</v>
       </c>
       <c r="C678" s="3">
         <v>44572</v>
@@ -7857,7 +7857,7 @@
         <v>44575</v>
       </c>
       <c r="B679">
-        <v>49900</v>
+        <v>50022</v>
       </c>
       <c r="C679" s="3">
         <v>44573</v>
@@ -7868,7 +7868,7 @@
         <v>44576</v>
       </c>
       <c r="B680">
-        <v>44552</v>
+        <v>44697</v>
       </c>
       <c r="C680" s="3">
         <v>44574</v>
@@ -7879,7 +7879,7 @@
         <v>44577</v>
       </c>
       <c r="B681">
-        <v>18298</v>
+        <v>18355</v>
       </c>
       <c r="C681" s="3">
         <v>44575</v>
@@ -7890,7 +7890,7 @@
         <v>44578</v>
       </c>
       <c r="B682">
-        <v>57675</v>
+        <v>57869</v>
       </c>
       <c r="C682" s="3">
         <v>44576</v>
@@ -7901,7 +7901,7 @@
         <v>44579</v>
       </c>
       <c r="B683">
-        <v>53899</v>
+        <v>54103</v>
       </c>
       <c r="C683" s="3">
         <v>44577</v>
@@ -7912,7 +7912,7 @@
         <v>44580</v>
       </c>
       <c r="B684">
-        <v>57559</v>
+        <v>57806</v>
       </c>
       <c r="C684" s="3">
         <v>44578</v>
@@ -7923,7 +7923,7 @@
         <v>44581</v>
       </c>
       <c r="B685">
-        <v>53622</v>
+        <v>53721</v>
       </c>
       <c r="C685" s="3">
         <v>44579</v>
@@ -7934,7 +7934,7 @@
         <v>44582</v>
       </c>
       <c r="B686">
-        <v>53131</v>
+        <v>53254</v>
       </c>
       <c r="C686" s="3">
         <v>44580</v>
@@ -7945,7 +7945,7 @@
         <v>44583</v>
       </c>
       <c r="B687">
-        <v>44469</v>
+        <v>44602</v>
       </c>
       <c r="C687" s="3">
         <v>44581</v>
@@ -7956,7 +7956,7 @@
         <v>44584</v>
       </c>
       <c r="B688">
-        <v>19740</v>
+        <v>19870</v>
       </c>
       <c r="C688" s="3">
         <v>44582</v>
@@ -7967,7 +7967,7 @@
         <v>44585</v>
       </c>
       <c r="B689">
-        <v>47987</v>
+        <v>48176</v>
       </c>
       <c r="C689" s="3">
         <v>44583</v>
@@ -7978,7 +7978,7 @@
         <v>44586</v>
       </c>
       <c r="B690">
-        <v>44838</v>
+        <v>44950</v>
       </c>
       <c r="C690" s="3">
         <v>44584</v>
@@ -7989,7 +7989,7 @@
         <v>44587</v>
       </c>
       <c r="B691">
-        <v>38228</v>
+        <v>38381</v>
       </c>
       <c r="C691" s="3">
         <v>44585</v>
@@ -8000,7 +8000,7 @@
         <v>44588</v>
       </c>
       <c r="B692">
-        <v>33754</v>
+        <v>33960</v>
       </c>
       <c r="C692" s="3">
         <v>44586</v>
@@ -8011,7 +8011,7 @@
         <v>44589</v>
       </c>
       <c r="B693">
-        <v>27565</v>
+        <v>28054</v>
       </c>
       <c r="C693" s="3">
         <v>44587</v>
@@ -8022,7 +8022,7 @@
         <v>44590</v>
       </c>
       <c r="B694">
-        <v>21908</v>
+        <v>22241</v>
       </c>
       <c r="C694" s="3">
         <v>44588</v>
@@ -8033,7 +8033,7 @@
         <v>44591</v>
       </c>
       <c r="B695">
-        <v>9436</v>
+        <v>9593</v>
       </c>
       <c r="C695" s="3">
         <v>44589</v>
@@ -8044,7 +8044,7 @@
         <v>44592</v>
       </c>
       <c r="B696">
-        <v>22452</v>
+        <v>23257</v>
       </c>
       <c r="C696" s="3">
         <v>44590</v>
@@ -8055,10 +8055,21 @@
         <v>44593</v>
       </c>
       <c r="B697">
-        <v>11350</v>
+        <v>17451</v>
       </c>
       <c r="C697" s="3">
         <v>44591</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B698">
+        <v>11657</v>
+      </c>
+      <c r="C698" s="3">
+        <v>44592</v>
       </c>
     </row>
   </sheetData>
